--- a/pred_ohlcv/54_21/2019-10-29 WAX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 WAX ohlcv.xlsx
@@ -1510,7 +1510,7 @@
         <v>378472.3002033</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>378472.3002033</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>378472.3002033</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>264945.2734033</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>373595.7137033</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>373595.7137033</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>423265.7950033</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>421218.3056033</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>421218.3056033</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>421218.3056033</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>421218.3056033</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>366300.9912033</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>365500.2046033</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-634792.6032967002</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-634792.6032967002</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-624792.6032967002</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-583616.4589496101</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-533029.9040496101</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-424151.8192496102</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-29 WAX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 WAX ohlcv.xlsx
@@ -1510,7 +1510,7 @@
         <v>378472.3002033</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>378472.3002033</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>378472.3002033</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>264945.2734033</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>236025.2313033</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>232739.2313033</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>373595.7137033</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>373595.7137033</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>373595.7137033</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>423265.7950033</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>421218.3056033</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>421218.3056033</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>421218.3056033</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>421218.3056033</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>366300.9912033</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>365500.2046033</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-634792.6032967002</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-624792.6032967002</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-583616.4589496101</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-533029.9040496101</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-424151.8192496102</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
